--- a/lab5+6/Lab6_data.xlsx
+++ b/lab5+6/Lab6_data.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376514F8-E0DE-45A4-BA20-05E08AA7842A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{128E2EF2-D613-4468-A9A0-3EDD6C1D4519}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,9 +103,6 @@
     <t>Vch2(V)</t>
   </si>
   <si>
-    <t>Time Difference</t>
-  </si>
-  <si>
     <t>Amp: 150mV</t>
   </si>
   <si>
@@ -119,6 +110,9 @@
   </si>
   <si>
     <t>Amp: 2.25V</t>
+  </si>
+  <si>
+    <t>Time Difference(s)</t>
   </si>
 </sst>
 </file>
@@ -296,12 +290,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -316,6 +304,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2769,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,20 +2772,20 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="J1" t="s">
         <v>5</v>
       </c>
@@ -2813,59 +2807,59 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>50</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <f>C3/B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <f>F3*A3*360</f>
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>80</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>1.04E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <f t="shared" ref="D4:D9" si="0">C4/B4</f>
         <v>4.5614035087719303E-3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E9" si="1">F4*A4*360</f>
         <v>0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
       <c r="G4">
@@ -2874,24 +2868,24 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>100</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>2.64E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>1.1578947368421053E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
         <v>-2.16</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>-6.0000000000000002E-5</v>
       </c>
       <c r="G5">
@@ -2900,24 +2894,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>120</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>2.1403508771929827E-2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>-17.28</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="G6">
@@ -2926,24 +2920,24 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>150</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>0.12</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>5.2631578947368425E-2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
         <v>-21.6</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="G7">
@@ -2952,24 +2946,24 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>200</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0.16470588235294117</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>-28.8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="G8">
@@ -2981,24 +2975,24 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>300</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>0.8529411764705882</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
         <v>-43.2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="G9">
@@ -3007,759 +3001,759 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>400</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <f>C10/B10</f>
         <v>2.7450980392156867</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>F10*A10*360</f>
         <v>-60.480000000000004</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>-4.2000000000000002E-4</v>
       </c>
       <c r="G10">
-        <f>G9+1</f>
+        <f t="shared" ref="G10:G28" si="3">G9+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <v>500</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>1.36</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f>C11/B11</f>
         <v>6.6666666666666679</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>F11*A11*360</f>
         <v>-75.600000000000009</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>-4.2000000000000002E-4</v>
       </c>
       <c r="G11">
-        <f>G10+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>600</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>2.88</v>
       </c>
-      <c r="D12" s="10">
-        <f t="shared" ref="D12:D24" si="3">C12/B12</f>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:D24" si="4">C12/B12</f>
         <v>14.117647058823529</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" ref="E12:E24" si="4">F12*A12*360</f>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E24" si="5">F12*A12*360</f>
         <v>-95.04</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>-4.4000000000000002E-4</v>
       </c>
       <c r="G12">
-        <f>G11+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>700</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>5.36</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
+        <f t="shared" si="4"/>
+        <v>25.769230769230774</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="5"/>
+        <v>-110.88</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-4.4000000000000002E-4</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>25.769230769230774</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="4"/>
-        <v>-110.88</v>
-      </c>
-      <c r="F13" s="12">
-        <v>-4.4000000000000002E-4</v>
-      </c>
-      <c r="G13">
-        <f>G12+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>750</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>6.96</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
+        <f t="shared" si="4"/>
+        <v>34.117647058823529</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="5"/>
+        <v>-124.20000000000002</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-4.6000000000000001E-4</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>34.117647058823529</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="4"/>
-        <v>-124.20000000000002</v>
-      </c>
-      <c r="F14" s="12">
-        <v>-4.6000000000000001E-4</v>
-      </c>
-      <c r="G14">
-        <f>G13+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>800</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
+        <f t="shared" si="4"/>
+        <v>42.307692307692314</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="5"/>
+        <v>-141.12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>-4.8999999999999998E-4</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v>42.307692307692314</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="4"/>
-        <v>-141.12</v>
-      </c>
-      <c r="F15" s="12">
-        <v>-4.8999999999999998E-4</v>
-      </c>
-      <c r="G15">
-        <f>G14+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <v>900</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>13.2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
+        <f t="shared" si="4"/>
+        <v>64.705882352941174</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="5"/>
+        <v>-158.76</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-4.8999999999999998E-4</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v>64.705882352941174</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="4"/>
-        <v>-158.76</v>
-      </c>
-      <c r="F16" s="12">
-        <v>-4.8999999999999998E-4</v>
-      </c>
-      <c r="G16">
-        <f>G15+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>1000</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>0.152</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>12.8</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
+        <f t="shared" si="4"/>
+        <v>84.21052631578948</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="5"/>
+        <v>-180</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v>84.21052631578948</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="4"/>
-        <v>-180</v>
-      </c>
-      <c r="F17" s="12">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="G17">
-        <f>G16+1</f>
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>1040</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>0.156</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>13.6</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
+        <f t="shared" si="4"/>
+        <v>87.179487179487182</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="5"/>
+        <v>170.72640000000001</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4.5600000000000003E-4</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v>87.179487179487182</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="4"/>
-        <v>170.72640000000001</v>
-      </c>
-      <c r="F18" s="12">
-        <v>4.5600000000000003E-4</v>
-      </c>
-      <c r="G18">
-        <f>G17+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>1070</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>0.158</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>14.4</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
+        <f t="shared" si="4"/>
+        <v>91.139240506329116</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="5"/>
+        <v>166.40639999999999</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4.3199999999999998E-4</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v>91.139240506329116</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="4"/>
-        <v>166.40639999999999</v>
-      </c>
-      <c r="F19" s="12">
-        <v>4.3199999999999998E-4</v>
-      </c>
-      <c r="G19">
-        <f>G18+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>1250</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>0.156</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>16.2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
+        <f t="shared" si="4"/>
+        <v>103.84615384615384</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="5"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>103.84615384615384</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="4"/>
-        <v>133.19999999999999</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2.9599999999999998E-4</v>
-      </c>
-      <c r="G20">
-        <f>G19+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>1350</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>0.156</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
+        <f t="shared" si="4"/>
+        <v>105.12820512820512</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="5"/>
+        <v>120.52800000000002</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="3"/>
-        <v>105.12820512820512</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="4"/>
-        <v>120.52800000000002</v>
-      </c>
-      <c r="F21" s="12">
-        <v>2.4800000000000001E-4</v>
-      </c>
-      <c r="G21">
-        <f>G20+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>1500</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>0.156</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>16.600000000000001</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
+        <f t="shared" si="4"/>
+        <v>106.41025641025642</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="5"/>
+        <v>103.68</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1.92E-4</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>106.41025641025642</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" si="4"/>
-        <v>103.68</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1.92E-4</v>
-      </c>
-      <c r="G22">
-        <f>G21+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>1750</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>0.156</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
+        <f t="shared" si="4"/>
+        <v>105.12820512820512</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="5"/>
+        <v>85.679999999999993</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.36E-4</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="3"/>
-        <v>105.12820512820512</v>
-      </c>
-      <c r="E23" s="11">
-        <f t="shared" si="4"/>
-        <v>85.679999999999993</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1.36E-4</v>
-      </c>
-      <c r="G23">
-        <f>G22+1</f>
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>1850</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>0.156</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
+        <f t="shared" si="4"/>
+        <v>105.12820512820512</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="5"/>
+        <v>82.584000000000003</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="3"/>
-        <v>105.12820512820512</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="4"/>
-        <v>82.584000000000003</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1.2400000000000001E-4</v>
-      </c>
-      <c r="G24">
-        <f>G23+1</f>
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>2000</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>0.16</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="D25" s="10">
-        <f>C25/B25</f>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:D38" si="6">C25/B25</f>
         <v>102.49999999999999</v>
       </c>
-      <c r="E25" s="11">
-        <f>F25*A25*360</f>
+      <c r="E25" s="9">
+        <f t="shared" ref="E25:E38" si="7">F25*A25*360</f>
         <v>74.88</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>1.0399999999999999E-4</v>
       </c>
       <c r="G25">
-        <f>G24+1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>3000</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>0.16</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>16</v>
       </c>
-      <c r="D26" s="10">
-        <f>C26/B26</f>
+      <c r="D26" s="8">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="E26" s="11">
-        <f>F26*A26*360</f>
+      <c r="E26" s="9">
+        <f t="shared" si="7"/>
         <v>51.84</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="G26">
-        <f>G25+1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>4000</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>0.16</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>15.6</v>
       </c>
-      <c r="D27" s="10">
-        <f>C27/B27</f>
+      <c r="D27" s="8">
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="E27" s="11">
-        <f>F27*A27*360</f>
+      <c r="E27" s="9">
+        <f t="shared" si="7"/>
         <v>34.56</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="G27">
-        <f>G26+1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>5000</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>0.16</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>15.6</v>
       </c>
-      <c r="D28" s="10">
-        <f>C28/B28</f>
+      <c r="D28" s="8">
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="E28" s="11">
-        <f>F28*A28*360</f>
+      <c r="E28" s="9">
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G28">
-        <f>G27+1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>7000</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>0.16</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>15.6</v>
       </c>
-      <c r="D29" s="10">
-        <f>C29/B29</f>
+      <c r="D29" s="8">
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="E29" s="11">
-        <f>F29*A29*360</f>
+      <c r="E29" s="9">
+        <f t="shared" si="7"/>
         <v>15.120000000000001</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G38" si="5">G28+1</f>
+        <f t="shared" ref="G29:G38" si="8">G28+1</f>
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>8000</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>0.16</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>15.6</v>
       </c>
-      <c r="D30" s="10">
-        <f>C30/B30</f>
+      <c r="D30" s="8">
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="E30" s="11">
-        <f>F30*A30*360</f>
+      <c r="E30" s="9">
+        <f t="shared" si="7"/>
         <v>12.672000000000001</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>4.4000000000000002E-6</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>10000</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>0.16</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>15.6</v>
       </c>
-      <c r="D31" s="10">
-        <f>C31/B31</f>
+      <c r="D31" s="8">
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="E31" s="11">
-        <f>F31*A31*360</f>
+      <c r="E31" s="9">
+        <f t="shared" si="7"/>
         <v>12.959999999999999</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="15">
         <v>10400</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>0.16</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>15.6</v>
       </c>
-      <c r="D32" s="10">
-        <f>C32/B32</f>
+      <c r="D32" s="8">
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="E32" s="11">
-        <f>F32*A32*360</f>
+      <c r="E32" s="9">
+        <f t="shared" si="7"/>
         <v>9.7344000000000008</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>2.6000000000000001E-6</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="15">
         <v>10700</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>0.16</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>15.6</v>
       </c>
-      <c r="D33" s="10">
-        <f>C33/B33</f>
+      <c r="D33" s="8">
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="E33" s="11">
-        <f>F33*A33*360</f>
+      <c r="E33" s="9">
+        <f t="shared" si="7"/>
         <v>8.474400000000001</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="15">
         <v>15000</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>0.158</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>15.4</v>
       </c>
-      <c r="D34" s="10">
-        <f>C34/B34</f>
+      <c r="D34" s="8">
+        <f t="shared" si="6"/>
         <v>97.468354430379748</v>
       </c>
-      <c r="E34" s="11">
-        <f>F34*A34*360</f>
+      <c r="E34" s="9">
+        <f t="shared" si="7"/>
         <v>4.32</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <v>7.9999999999999996E-7</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="15">
         <v>20000</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>0.16</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>15.2</v>
       </c>
-      <c r="D35" s="10">
-        <f>C35/B35</f>
+      <c r="D35" s="8">
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="E35" s="11">
-        <f>F35*A35*360</f>
+      <c r="E35" s="9">
+        <f t="shared" si="7"/>
         <v>-2.88</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>-3.9999999999999998E-7</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>30000</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>0.16</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>14.8</v>
       </c>
-      <c r="D36" s="10">
-        <f>C36/B36</f>
+      <c r="D36" s="8">
+        <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
-      <c r="E36" s="11">
-        <f>F36*A36*360</f>
+      <c r="E36" s="9">
+        <f t="shared" si="7"/>
         <v>-5.3999999999999995</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <v>-4.9999999999999998E-7</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="15">
         <v>40000</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>0.152</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>14.4</v>
       </c>
-      <c r="D37" s="10">
-        <f>C37/B37</f>
+      <c r="D37" s="8">
+        <f t="shared" si="6"/>
         <v>94.736842105263165</v>
       </c>
-      <c r="E37" s="11">
-        <f>F37*A37*360</f>
+      <c r="E37" s="9">
+        <f t="shared" si="7"/>
         <v>-11.52</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="10">
         <v>-7.9999999999999996E-7</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="16">
         <v>50000</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="12">
         <v>13.2</v>
       </c>
-      <c r="D38" s="14">
-        <f>C38/B38</f>
+      <c r="D38" s="12">
+        <f t="shared" si="6"/>
         <v>94.285714285714278</v>
       </c>
-      <c r="E38" s="15">
-        <f>F38*A38*360</f>
+      <c r="E38" s="13">
+        <f t="shared" si="7"/>
         <v>-18</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
